--- a/OW_nais_einheiten_unique_bh_20241128_mf.xlsx
+++ b/OW_nais_einheiten_unique_bh_20241128_mf.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frehnerm\Documents\excel\Aufträge\Sensi CH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3AB521-2335-4235-BAAD-93D063CEE380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67205FD-91B0-4646-81F8-7B707AE22CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43065" yWindow="-5160" windowWidth="19050" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$97</definedName>
+  </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="129">
   <si>
     <t>Einheit Obwalden</t>
   </si>
@@ -399,9 +402,6 @@
     <t>27f</t>
   </si>
   <si>
-    <t>id fehlt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Da es in OW keine colline und keine obersubalpine Stufe gibt wurden diese beiden Höhenstufen nicht erwähnt. </t>
   </si>
   <si>
@@ -418,6 +418,12 @@
   </si>
   <si>
     <t>29A</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>descr</t>
   </si>
 </sst>
 </file>
@@ -816,15 +822,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1014638C-3B99-445C-AFCE-581645DB9E5E}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12:H95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -846,10 +857,16 @@
       <c r="G1" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -866,10 +883,14 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <f>IF(C2=F2,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -886,10 +907,14 @@
       <c r="G3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="0">IF(C3=F3,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
-        <v>319</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>98</v>
@@ -906,10 +931,14 @@
       <c r="G4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
-        <v>326</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>101</v>
@@ -926,10 +955,14 @@
       <c r="G5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
-        <v>327</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>104</v>
@@ -946,10 +979,14 @@
       <c r="G6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -966,10 +1003,14 @@
       <c r="G7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -986,10 +1027,14 @@
       <c r="G8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1006,10 +1051,14 @@
       <c r="G9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1026,10 +1075,14 @@
       <c r="G10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1046,9 +1099,15 @@
       <c r="G11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1064,13 +1123,14 @@
       <c r="G12" t="s">
         <v>15</v>
       </c>
-      <c r="H12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -1087,10 +1147,14 @@
       <c r="G13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1107,10 +1171,14 @@
       <c r="G14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -1127,10 +1195,14 @@
       <c r="G15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -1147,10 +1219,14 @@
       <c r="G16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1167,10 +1243,14 @@
       <c r="G17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1187,10 +1267,14 @@
       <c r="G18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1207,10 +1291,14 @@
       <c r="G19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
@@ -1227,10 +1315,14 @@
       <c r="G20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
@@ -1247,10 +1339,14 @@
       <c r="G21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -1267,10 +1363,14 @@
       <c r="G22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -1287,10 +1387,14 @@
       <c r="G23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
@@ -1307,10 +1411,14 @@
       <c r="G24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -1327,10 +1435,14 @@
       <c r="G25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
@@ -1347,10 +1459,14 @@
       <c r="G26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -1367,10 +1483,14 @@
       <c r="G27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
@@ -1387,10 +1507,14 @@
       <c r="G28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
@@ -1407,10 +1531,14 @@
       <c r="G29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
@@ -1427,10 +1555,14 @@
       <c r="G30" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>38</v>
@@ -1447,10 +1579,14 @@
       <c r="G31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -1467,10 +1603,14 @@
       <c r="G32" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
@@ -1487,10 +1627,14 @@
       <c r="G33" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
@@ -1507,10 +1651,14 @@
       <c r="G34" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>41</v>
@@ -1527,10 +1675,14 @@
       <c r="G35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
@@ -1547,10 +1699,14 @@
       <c r="G36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
@@ -1567,10 +1723,14 @@
       <c r="G37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
@@ -1587,10 +1747,14 @@
       <c r="G38" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
@@ -1607,10 +1771,14 @@
       <c r="G39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
@@ -1627,10 +1795,14 @@
       <c r="G40" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
@@ -1642,15 +1814,19 @@
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G41" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
@@ -1667,10 +1843,14 @@
       <c r="G42" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
@@ -1687,10 +1867,14 @@
       <c r="G43" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
@@ -1707,10 +1891,14 @@
       <c r="G44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
@@ -1727,10 +1915,14 @@
       <c r="G45" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
@@ -1747,10 +1939,14 @@
       <c r="G46" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
@@ -1767,10 +1963,14 @@
       <c r="G47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
@@ -1787,10 +1987,14 @@
       <c r="G48" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
@@ -1807,10 +2011,14 @@
       <c r="G49" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
@@ -1827,10 +2035,14 @@
       <c r="G50" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
@@ -1847,10 +2059,14 @@
       <c r="G51" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
@@ -1867,10 +2083,14 @@
       <c r="G52" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1887,9 +2107,15 @@
       <c r="G53" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
       <c r="B54" s="2" t="s">
         <v>113</v>
       </c>
@@ -1908,12 +2134,15 @@
       <c r="G54" t="s">
         <v>24</v>
       </c>
-      <c r="H54" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
       <c r="B55" s="2" t="s">
         <v>114</v>
       </c>
@@ -1932,13 +2161,14 @@
       <c r="G55" t="s">
         <v>59</v>
       </c>
-      <c r="H55" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>58</v>
@@ -1955,10 +2185,14 @@
       <c r="G56" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3">
-        <v>198</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
@@ -1975,10 +2209,14 @@
       <c r="G57" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>62</v>
@@ -1995,10 +2233,14 @@
       <c r="G58" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>61</v>
@@ -2015,10 +2257,14 @@
       <c r="G59" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>63</v>
@@ -2035,10 +2281,14 @@
       <c r="G60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>64</v>
@@ -2055,9 +2305,15 @@
       <c r="G61" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
       <c r="B62" t="s">
         <v>107</v>
       </c>
@@ -2073,13 +2329,14 @@
       <c r="G62" t="s">
         <v>7</v>
       </c>
-      <c r="H62" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3">
-        <v>231</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>67</v>
@@ -2091,14 +2348,20 @@
         <v>71</v>
       </c>
       <c r="F63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G63" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="3"/>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
       <c r="B64" s="2" t="s">
         <v>111</v>
       </c>
@@ -2114,13 +2377,14 @@
       <c r="G64" t="s">
         <v>7</v>
       </c>
-      <c r="H64" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3">
-        <v>236</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
@@ -2137,10 +2401,14 @@
       <c r="G65" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>70</v>
@@ -2157,10 +2425,14 @@
       <c r="G66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3">
-        <v>241</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
@@ -2177,10 +2449,14 @@
       <c r="G67" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67">
+        <f t="shared" ref="I67:I97" si="1">IF(C67=F67,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3">
-        <v>243</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>73</v>
@@ -2197,10 +2473,14 @@
       <c r="G68" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3">
-        <v>251</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>74</v>
@@ -2217,10 +2497,14 @@
       <c r="G69" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="3">
-        <v>254</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>75</v>
@@ -2237,10 +2521,14 @@
       <c r="G70" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3">
-        <v>256</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>76</v>
@@ -2257,10 +2545,14 @@
       <c r="G71" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3">
-        <v>260</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>77</v>
@@ -2277,9 +2569,15 @@
       <c r="G72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="3"/>
+      <c r="I72">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
       <c r="B73" t="s">
         <v>108</v>
       </c>
@@ -2295,13 +2593,14 @@
       <c r="G73" t="s">
         <v>59</v>
       </c>
-      <c r="H73" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>78</v>
@@ -2318,10 +2617,14 @@
       <c r="G74" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>79</v>
@@ -2338,10 +2641,14 @@
       <c r="G75" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3">
-        <v>273</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>80</v>
@@ -2358,10 +2665,14 @@
       <c r="G76" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>83</v>
@@ -2379,12 +2690,16 @@
         <v>24</v>
       </c>
       <c r="H77" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="3">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>85</v>
@@ -2402,12 +2717,16 @@
         <v>24</v>
       </c>
       <c r="H78" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="3">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>81</v>
@@ -2424,10 +2743,14 @@
       <c r="G79" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="3">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>82</v>
@@ -2444,10 +2767,14 @@
       <c r="G80" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="3">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>84</v>
@@ -2464,10 +2791,14 @@
       <c r="G81" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="3">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>86</v>
@@ -2484,10 +2815,14 @@
       <c r="G82" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="3">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>87</v>
@@ -2504,10 +2839,14 @@
       <c r="G83" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="3">
-        <v>291</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>88</v>
@@ -2524,10 +2863,14 @@
       <c r="G84" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="3">
-        <v>295</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>89</v>
@@ -2544,10 +2887,14 @@
       <c r="G85" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3">
-        <v>296</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>90</v>
@@ -2564,10 +2911,14 @@
       <c r="G86" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="3">
-        <v>305</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>91</v>
@@ -2582,12 +2933,16 @@
         <v>91</v>
       </c>
       <c r="G87" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3">
-        <v>306</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>92</v>
@@ -2604,10 +2959,14 @@
       <c r="G88" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="3">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>13</v>
@@ -2624,10 +2983,14 @@
       <c r="G89" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="3">
-        <v>310</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>93</v>
@@ -2644,10 +3007,14 @@
       <c r="G90" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="3">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>94</v>
@@ -2664,10 +3031,14 @@
       <c r="G91" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="3">
-        <v>314</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>95</v>
@@ -2684,10 +3055,14 @@
       <c r="G92" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="3">
-        <v>315</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>96</v>
@@ -2704,10 +3079,14 @@
       <c r="G93" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="3">
-        <v>317</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>97</v>
@@ -2724,9 +3103,15 @@
       <c r="G94" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="3"/>
+      <c r="I94">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
       <c r="B95" s="2" t="s">
         <v>98</v>
       </c>
@@ -2742,13 +3127,14 @@
       <c r="G95" t="s">
         <v>11</v>
       </c>
-      <c r="H95" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="3">
-        <v>322</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>99</v>
@@ -2765,10 +3151,14 @@
       <c r="G96" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="3">
-        <v>323</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>100</v>
@@ -2784,6 +3174,10 @@
       </c>
       <c r="G97" t="s">
         <v>118</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2797,11 +3191,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/OW_nais_einheiten_unique_bh_20241128_mf.xlsx
+++ b/OW_nais_einheiten_unique_bh_20241128_mf.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frehnerm\Documents\excel\Aufträge\Sensi CH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67205FD-91B0-4646-81F8-7B707AE22CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3AB521-2335-4235-BAAD-93D063CEE380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43065" yWindow="-5160" windowWidth="19050" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$97</definedName>
-  </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="128">
   <si>
     <t>Einheit Obwalden</t>
   </si>
@@ -402,6 +399,9 @@
     <t>27f</t>
   </si>
   <si>
+    <t>id fehlt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Da es in OW keine colline und keine obersubalpine Stufe gibt wurden diese beiden Höhenstufen nicht erwähnt. </t>
   </si>
   <si>
@@ -418,12 +418,6 @@
   </si>
   <si>
     <t>29A</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>descr</t>
   </si>
 </sst>
 </file>
@@ -822,20 +816,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1014638C-3B99-445C-AFCE-581645DB9E5E}">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12:H95"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="15.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.734375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -857,16 +846,10 @@
       <c r="G1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -883,14 +866,10 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="I2">
-        <f>IF(C2=F2,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -907,14 +886,10 @@
       <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I66" si="0">IF(C3=F3,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>319</v>
       </c>
       <c r="B4" t="s">
         <v>98</v>
@@ -931,14 +906,10 @@
       <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>326</v>
       </c>
       <c r="B5" t="s">
         <v>101</v>
@@ -955,14 +926,10 @@
       <c r="G5" t="s">
         <v>103</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
         <v>104</v>
@@ -979,14 +946,10 @@
       <c r="G6" t="s">
         <v>103</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1003,14 +966,10 @@
       <c r="G7" t="s">
         <v>5</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1027,14 +986,10 @@
       <c r="G8" t="s">
         <v>11</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1051,14 +1006,10 @@
       <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1075,14 +1026,10 @@
       <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1099,15 +1046,9 @@
       <c r="G11" t="s">
         <v>15</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1123,14 +1064,13 @@
       <c r="G12" t="s">
         <v>15</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -1147,14 +1087,10 @@
       <c r="G13" t="s">
         <v>15</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1171,14 +1107,10 @@
       <c r="G14" t="s">
         <v>15</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -1195,14 +1127,10 @@
       <c r="G15" t="s">
         <v>15</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -1219,14 +1147,10 @@
       <c r="G16" t="s">
         <v>5</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1243,14 +1167,10 @@
       <c r="G17" t="s">
         <v>24</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1267,14 +1187,10 @@
       <c r="G18" t="s">
         <v>5</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1291,14 +1207,10 @@
       <c r="G19" t="s">
         <v>5</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
@@ -1315,14 +1227,10 @@
       <c r="G20" t="s">
         <v>15</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
@@ -1339,14 +1247,10 @@
       <c r="G21" t="s">
         <v>5</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -1363,14 +1267,10 @@
       <c r="G22" t="s">
         <v>24</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -1387,14 +1287,10 @@
       <c r="G23" t="s">
         <v>24</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
@@ -1411,14 +1307,10 @@
       <c r="G24" t="s">
         <v>24</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -1435,14 +1327,10 @@
       <c r="G25" t="s">
         <v>24</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
@@ -1459,14 +1347,10 @@
       <c r="G26" t="s">
         <v>24</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -1483,14 +1367,10 @@
       <c r="G27" t="s">
         <v>24</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
@@ -1507,14 +1387,10 @@
       <c r="G28" t="s">
         <v>24</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
@@ -1531,14 +1407,10 @@
       <c r="G29" t="s">
         <v>24</v>
       </c>
-      <c r="I29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
@@ -1555,14 +1427,10 @@
       <c r="G30" t="s">
         <v>24</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
         <v>38</v>
@@ -1579,14 +1447,10 @@
       <c r="G31" t="s">
         <v>24</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -1603,14 +1467,10 @@
       <c r="G32" t="s">
         <v>3</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
@@ -1627,14 +1487,10 @@
       <c r="G33" t="s">
         <v>65</v>
       </c>
-      <c r="I33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
@@ -1651,14 +1507,10 @@
       <c r="G34" t="s">
         <v>65</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
         <v>41</v>
@@ -1675,14 +1527,10 @@
       <c r="G35" t="s">
         <v>5</v>
       </c>
-      <c r="I35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
@@ -1699,14 +1547,10 @@
       <c r="G36" t="s">
         <v>5</v>
       </c>
-      <c r="I36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
@@ -1723,14 +1567,10 @@
       <c r="G37" t="s">
         <v>7</v>
       </c>
-      <c r="I37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
@@ -1747,14 +1587,10 @@
       <c r="G38" t="s">
         <v>24</v>
       </c>
-      <c r="I38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
@@ -1771,14 +1607,10 @@
       <c r="G39" t="s">
         <v>5</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
@@ -1795,14 +1627,10 @@
       <c r="G40" t="s">
         <v>24</v>
       </c>
-      <c r="I40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
@@ -1814,19 +1642,15 @@
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G41" t="s">
         <v>5</v>
       </c>
-      <c r="I41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
@@ -1843,14 +1667,10 @@
       <c r="G42" t="s">
         <v>117</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
@@ -1867,14 +1687,10 @@
       <c r="G43" t="s">
         <v>7</v>
       </c>
-      <c r="I43">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
@@ -1891,14 +1707,10 @@
       <c r="G44" t="s">
         <v>5</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
@@ -1915,14 +1727,10 @@
       <c r="G45" t="s">
         <v>7</v>
       </c>
-      <c r="I45">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
@@ -1939,14 +1747,10 @@
       <c r="G46" t="s">
         <v>5</v>
       </c>
-      <c r="I46">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
@@ -1963,14 +1767,10 @@
       <c r="G47" t="s">
         <v>5</v>
       </c>
-      <c r="I47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
@@ -1987,14 +1787,10 @@
       <c r="G48" t="s">
         <v>7</v>
       </c>
-      <c r="I48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
@@ -2011,14 +1807,10 @@
       <c r="G49" t="s">
         <v>7</v>
       </c>
-      <c r="I49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
@@ -2035,14 +1827,10 @@
       <c r="G50" t="s">
         <v>59</v>
       </c>
-      <c r="I50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
@@ -2059,14 +1847,10 @@
       <c r="G51" t="s">
         <v>5</v>
       </c>
-      <c r="I51">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
@@ -2083,14 +1867,10 @@
       <c r="G52" t="s">
         <v>106</v>
       </c>
-      <c r="I52">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -2107,15 +1887,9 @@
       <c r="G53" t="s">
         <v>7</v>
       </c>
-      <c r="I53">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="3">
-        <v>53</v>
-      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
       <c r="B54" s="2" t="s">
         <v>113</v>
       </c>
@@ -2134,15 +1908,12 @@
       <c r="G54" t="s">
         <v>24</v>
       </c>
-      <c r="I54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="3">
-        <v>54</v>
-      </c>
+      <c r="H54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
       <c r="B55" s="2" t="s">
         <v>114</v>
       </c>
@@ -2161,14 +1932,13 @@
       <c r="G55" t="s">
         <v>59</v>
       </c>
-      <c r="I55">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="B56" t="s">
         <v>58</v>
@@ -2185,14 +1955,10 @@
       <c r="G56" t="s">
         <v>66</v>
       </c>
-      <c r="I56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
@@ -2209,14 +1975,10 @@
       <c r="G57" t="s">
         <v>59</v>
       </c>
-      <c r="I57">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c r="B58" t="s">
         <v>62</v>
@@ -2233,14 +1995,10 @@
       <c r="G58" t="s">
         <v>59</v>
       </c>
-      <c r="I58">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>58</v>
+        <v>206</v>
       </c>
       <c r="B59" t="s">
         <v>61</v>
@@ -2257,14 +2015,10 @@
       <c r="G59" t="s">
         <v>59</v>
       </c>
-      <c r="I59">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="B60" t="s">
         <v>63</v>
@@ -2281,14 +2035,10 @@
       <c r="G60" t="s">
         <v>59</v>
       </c>
-      <c r="I60">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="B61" t="s">
         <v>64</v>
@@ -2305,15 +2055,9 @@
       <c r="G61" t="s">
         <v>71</v>
       </c>
-      <c r="I61">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="3">
-        <v>61</v>
-      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
       <c r="B62" t="s">
         <v>107</v>
       </c>
@@ -2329,14 +2073,13 @@
       <c r="G62" t="s">
         <v>7</v>
       </c>
-      <c r="I62">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>67</v>
@@ -2348,20 +2091,14 @@
         <v>71</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G63" t="s">
         <v>71</v>
       </c>
-      <c r="I63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="3">
-        <v>63</v>
-      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="3"/>
       <c r="B64" s="2" t="s">
         <v>111</v>
       </c>
@@ -2377,14 +2114,13 @@
       <c r="G64" t="s">
         <v>7</v>
       </c>
-      <c r="I64">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H64" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>64</v>
+        <v>236</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
@@ -2401,14 +2137,10 @@
       <c r="G65" t="s">
         <v>7</v>
       </c>
-      <c r="I65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="B66" t="s">
         <v>70</v>
@@ -2425,14 +2157,10 @@
       <c r="G66" t="s">
         <v>65</v>
       </c>
-      <c r="I66">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>66</v>
+        <v>241</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
@@ -2449,14 +2177,10 @@
       <c r="G67" t="s">
         <v>71</v>
       </c>
-      <c r="I67">
-        <f t="shared" ref="I67:I97" si="1">IF(C67=F67,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
-        <v>67</v>
+        <v>243</v>
       </c>
       <c r="B68" t="s">
         <v>73</v>
@@ -2473,14 +2197,10 @@
       <c r="G68" t="s">
         <v>71</v>
       </c>
-      <c r="I68">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="B69" t="s">
         <v>74</v>
@@ -2497,14 +2217,10 @@
       <c r="G69" t="s">
         <v>71</v>
       </c>
-      <c r="I69">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c r="B70" t="s">
         <v>75</v>
@@ -2521,14 +2237,10 @@
       <c r="G70" t="s">
         <v>11</v>
       </c>
-      <c r="I70">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <v>70</v>
+        <v>256</v>
       </c>
       <c r="B71" t="s">
         <v>76</v>
@@ -2545,14 +2257,10 @@
       <c r="G71" t="s">
         <v>71</v>
       </c>
-      <c r="I71">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <v>71</v>
+        <v>260</v>
       </c>
       <c r="B72" t="s">
         <v>77</v>
@@ -2569,15 +2277,9 @@
       <c r="G72" t="s">
         <v>71</v>
       </c>
-      <c r="I72">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="3">
-        <v>72</v>
-      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
       <c r="B73" t="s">
         <v>108</v>
       </c>
@@ -2593,14 +2295,13 @@
       <c r="G73" t="s">
         <v>59</v>
       </c>
-      <c r="I73">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="B74" t="s">
         <v>78</v>
@@ -2617,14 +2318,10 @@
       <c r="G74" t="s">
         <v>71</v>
       </c>
-      <c r="I74">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="B75" t="s">
         <v>79</v>
@@ -2641,14 +2338,10 @@
       <c r="G75" t="s">
         <v>71</v>
       </c>
-      <c r="I75">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
-        <v>75</v>
+        <v>273</v>
       </c>
       <c r="B76" t="s">
         <v>80</v>
@@ -2665,14 +2358,10 @@
       <c r="G76" t="s">
         <v>5</v>
       </c>
-      <c r="I76">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>83</v>
@@ -2690,16 +2379,12 @@
         <v>24</v>
       </c>
       <c r="H77" t="s">
-        <v>123</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>85</v>
@@ -2717,16 +2402,12 @@
         <v>24</v>
       </c>
       <c r="H78" t="s">
-        <v>124</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="B79" t="s">
         <v>81</v>
@@ -2743,14 +2424,10 @@
       <c r="G79" t="s">
         <v>3</v>
       </c>
-      <c r="I79">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="B80" t="s">
         <v>82</v>
@@ -2767,14 +2444,10 @@
       <c r="G80" t="s">
         <v>66</v>
       </c>
-      <c r="I80">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="B81" t="s">
         <v>84</v>
@@ -2791,14 +2464,10 @@
       <c r="G81" t="s">
         <v>66</v>
       </c>
-      <c r="I81">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="B82" t="s">
         <v>86</v>
@@ -2815,14 +2484,10 @@
       <c r="G82" t="s">
         <v>66</v>
       </c>
-      <c r="I82">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="B83" t="s">
         <v>87</v>
@@ -2839,14 +2504,10 @@
       <c r="G83" t="s">
         <v>66</v>
       </c>
-      <c r="I83">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="B84" t="s">
         <v>88</v>
@@ -2863,14 +2524,10 @@
       <c r="G84" t="s">
         <v>66</v>
       </c>
-      <c r="I84">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
-        <v>84</v>
+        <v>295</v>
       </c>
       <c r="B85" t="s">
         <v>89</v>
@@ -2887,14 +2544,10 @@
       <c r="G85" t="s">
         <v>66</v>
       </c>
-      <c r="I85">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
-        <v>85</v>
+        <v>296</v>
       </c>
       <c r="B86" t="s">
         <v>90</v>
@@ -2911,14 +2564,10 @@
       <c r="G86" t="s">
         <v>65</v>
       </c>
-      <c r="I86">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
-        <v>86</v>
+        <v>305</v>
       </c>
       <c r="B87" t="s">
         <v>91</v>
@@ -2933,16 +2582,12 @@
         <v>91</v>
       </c>
       <c r="G87" t="s">
-        <v>125</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
-        <v>87</v>
+        <v>306</v>
       </c>
       <c r="B88" t="s">
         <v>92</v>
@@ -2959,14 +2604,10 @@
       <c r="G88" t="s">
         <v>11</v>
       </c>
-      <c r="I88">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="B89" t="s">
         <v>13</v>
@@ -2983,14 +2624,10 @@
       <c r="G89" t="s">
         <v>11</v>
       </c>
-      <c r="I89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
-        <v>89</v>
+        <v>310</v>
       </c>
       <c r="B90" t="s">
         <v>93</v>
@@ -3007,14 +2644,10 @@
       <c r="G90" t="s">
         <v>15</v>
       </c>
-      <c r="I90">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
-        <v>90</v>
+        <v>312</v>
       </c>
       <c r="B91" t="s">
         <v>94</v>
@@ -3031,14 +2664,10 @@
       <c r="G91" t="s">
         <v>15</v>
       </c>
-      <c r="I91">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
-        <v>91</v>
+        <v>314</v>
       </c>
       <c r="B92" t="s">
         <v>95</v>
@@ -3055,14 +2684,10 @@
       <c r="G92" t="s">
         <v>15</v>
       </c>
-      <c r="I92">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
-        <v>92</v>
+        <v>315</v>
       </c>
       <c r="B93" t="s">
         <v>96</v>
@@ -3079,14 +2704,10 @@
       <c r="G93" t="s">
         <v>11</v>
       </c>
-      <c r="I93">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
-        <v>93</v>
+        <v>317</v>
       </c>
       <c r="B94" t="s">
         <v>97</v>
@@ -3103,15 +2724,9 @@
       <c r="G94" t="s">
         <v>11</v>
       </c>
-      <c r="I94">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="3">
-        <v>94</v>
-      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="3"/>
       <c r="B95" s="2" t="s">
         <v>98</v>
       </c>
@@ -3127,14 +2742,13 @@
       <c r="G95" t="s">
         <v>11</v>
       </c>
-      <c r="I95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
-        <v>95</v>
+        <v>322</v>
       </c>
       <c r="B96" t="s">
         <v>99</v>
@@ -3151,14 +2765,10 @@
       <c r="G96" t="s">
         <v>11</v>
       </c>
-      <c r="I96">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
-        <v>96</v>
+        <v>323</v>
       </c>
       <c r="B97" t="s">
         <v>100</v>
@@ -3174,10 +2784,6 @@
       </c>
       <c r="G97" t="s">
         <v>118</v>
-      </c>
-      <c r="I97">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3191,11 +2797,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
